--- a/Exercise 1/Results/5x5.xlsx
+++ b/Exercise 1/Results/5x5.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC1048DF61DE79905BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFDDAC3D-EB78-48C2-B229-1A14987271EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,6 +400,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,17 +421,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1609,105 +1609,66 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="S5">
-            <v>1</v>
-          </cell>
           <cell r="T5">
             <v>1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="S6">
-            <v>1.9444931140617008</v>
-          </cell>
           <cell r="T6">
             <v>1.8348623853211012</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="S7">
-            <v>2.6232530195127031</v>
-          </cell>
           <cell r="T7">
             <v>2.5423728813559325</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="S8">
-            <v>3.0852570646362958</v>
-          </cell>
           <cell r="T8">
             <v>3.1496062992125982</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="S9">
-            <v>3.5803307924262859</v>
-          </cell>
           <cell r="T9">
             <v>3.6764705882352948</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="S10">
-            <v>4.1379339397064232</v>
-          </cell>
           <cell r="T10">
             <v>4.1379310344827589</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="S11">
-            <v>4.5180421276635316</v>
-          </cell>
           <cell r="T11">
             <v>4.5454545454545459</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="S12">
-            <v>4.9189513224137915</v>
-          </cell>
           <cell r="T12">
             <v>4.9079754601226995</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="S13">
-            <v>5.0358379505385802</v>
-          </cell>
           <cell r="T13">
             <v>5.232558139534885</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="S14">
-            <v>5.1109987989517709</v>
-          </cell>
           <cell r="T14">
             <v>5.5248618784530397</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="S15">
-            <v>4.9199464527216596</v>
-          </cell>
           <cell r="T15">
             <v>5.7894736842105274</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="S16">
-            <v>5.2492867504918399</v>
-          </cell>
           <cell r="T16">
             <v>6.0301507537688455</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="S17">
-            <v>5.2300819714972668</v>
-          </cell>
           <cell r="T17">
             <v>6.2500000000000009</v>
           </cell>
@@ -2004,42 +1965,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A3" s="1" t="s">
@@ -2143,7 +2104,7 @@
       <c r="T4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2201,7 +2162,7 @@
         <f>Q5/1000000000</f>
         <v>0</v>
       </c>
-      <c r="S5" s="26" t="e">
+      <c r="S5" s="22" t="e">
         <f>$Q$5/Q5</f>
         <v>#DIV/0!</v>
       </c>
@@ -2209,7 +2170,7 @@
         <f>1/((1-$V$5)+$V$5/$P5)</f>
         <v>1</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="23">
         <v>0.91</v>
       </c>
     </row>
@@ -2267,7 +2228,7 @@
         <f t="shared" ref="R6:R17" si="0">Q6/1000000000</f>
         <v>1.69581E-4</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="24">
         <f t="shared" ref="S6:S17" si="1">$Q$5/Q6</f>
         <v>0</v>
       </c>
@@ -2330,7 +2291,7 @@
         <f t="shared" si="0"/>
         <v>3.0555600000000001E-4</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2393,7 +2354,7 @@
         <f t="shared" si="0"/>
         <v>4.0884999999999999E-4</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2456,7 +2417,7 @@
         <f t="shared" si="0"/>
         <v>4.3777399999999999E-4</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2519,7 +2480,7 @@
         <f t="shared" si="0"/>
         <v>3.9927099999999998E-4</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2582,7 +2543,7 @@
         <f t="shared" si="0"/>
         <v>3.9792899999999999E-4</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2645,7 +2606,7 @@
         <f t="shared" si="0"/>
         <v>3.5907099999999998E-4</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2708,7 +2669,7 @@
         <f t="shared" si="0"/>
         <v>4.1260899999999998E-4</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2771,7 +2732,7 @@
         <f t="shared" si="0"/>
         <v>3.8876699999999999E-4</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2834,7 +2795,7 @@
         <f t="shared" si="0"/>
         <v>3.2663800000000003E-4</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2897,7 +2858,7 @@
         <f t="shared" si="0"/>
         <v>2.9052700000000001E-4</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2960,7 +2921,7 @@
         <f t="shared" si="0"/>
         <v>3.77103E-4</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
